--- a/productBacklog (Group project).xlsx
+++ b/productBacklog (Group project).xlsx
@@ -1,31 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carole\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwwli\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14B8593A-4C5C-4D1D-9330-6773B85C416C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6D2FD0-9574-43B3-9457-400D458A96FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="4" r:id="rId1"/>
-    <sheet name="Sprint Tasks" sheetId="5" r:id="rId2"/>
-    <sheet name="Sprint review " sheetId="6" r:id="rId3"/>
-    <sheet name="Sprint retrospective" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>PRODUCT BACKLOG</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,12 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>story points</t>
-  </si>
-  <si>
-    <t>As a user I would favourites so that I can instantly see the sevice I booked from the home page.</t>
-  </si>
-  <si>
     <t xml:space="preserve">As a user I would like a way to have other options in case the service I want is not there . </t>
   </si>
   <si>
@@ -62,24 +55,12 @@
     <t>As  developer , I would include colours which a visually easier for the customer as it is visuallly appealing for the users interface.</t>
   </si>
   <si>
-    <t>As a devloper I would keep more important information in the centreand the top screen for the users appeal.</t>
-  </si>
-  <si>
     <t>As a developer, I would make sure the font size is visible for people to seeand wont have to strain.</t>
   </si>
   <si>
-    <t>As a devleloper, it would be optinal for the users to allow location access to build trust.</t>
-  </si>
-  <si>
-    <t>As a developer, I would need to make sure that when the user enters their postcode or address they are given contact information for services in their area l.</t>
-  </si>
-  <si>
     <t>As a developer, when the user enters their payment information there is an option to save their details for furture services .</t>
   </si>
   <si>
-    <t>As a developer , I would need to make sure tat the user can hire a service for an address different to the one they are at.</t>
-  </si>
-  <si>
     <t>As a developer, the site needs to be accesable for colourblind users by making sure the site has different colour modes.</t>
   </si>
   <si>
@@ -92,36 +73,21 @@
     <t>As a developer, the site will have a database of users with their ID, name, address, password, and reveleant contact information.</t>
   </si>
   <si>
-    <t>As a devloper the site will have a FAQ page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As developer  the site will have a terms of serive page and company policy page. </t>
-  </si>
-  <si>
     <t xml:space="preserve">As a developer the site will have a logo and complimentary colour design specific to the target audience. </t>
   </si>
   <si>
-    <t>As a user I will be able to login and have a remember me button where the user does not have to re enter their details.</t>
-  </si>
-  <si>
     <t>As a developer, I need to make sure it takes no more than 2secs for pages to load.</t>
   </si>
   <si>
     <t>As a user I will need to be able to receive a conformation message alert of my booking .</t>
   </si>
   <si>
-    <t xml:space="preserve">As a devloper, te site will have an about us page which displays the service it provides and any inpmortant informtaion the user will need to know about. </t>
-  </si>
-  <si>
     <t>As a developer, I will need to implement a icon where users can message just incase when I need of any help.</t>
   </si>
   <si>
     <t>As a developer, I will need to implement a search feature so its easier for users to search up specific things.</t>
   </si>
   <si>
-    <t>As a devleoper, the site will be able to be acess 24/7 so users can book a service at anytime.</t>
-  </si>
-  <si>
     <t>As a developer, users can change or cancel after booking a service.</t>
   </si>
   <si>
@@ -131,56 +97,110 @@
     <t xml:space="preserve">As a user, I would be able to register and become a member. </t>
   </si>
   <si>
-    <t>As a developer, I will need to implement a dropdown list menu to give the user a variety of options.</t>
-  </si>
-  <si>
     <t>As a developer I will need to implement suitable date and time booking slots suitable for both the user and employee's</t>
   </si>
   <si>
-    <t>Column5</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprint </t>
-  </si>
-  <si>
-    <t>Allocated roles</t>
-  </si>
-  <si>
     <t>As a developer, I will need to implement data protection act for the login page so that users information are kept secure and not shown to any third parties.</t>
   </si>
   <si>
     <t>As a devleloper. I would like I would like the option to show passwords so the user can know what the've typed in is correct.</t>
   </si>
   <si>
-    <t>As a developer, I would need to make sure that when the user enters their postcode or address they are given contact information for services in their area</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Lia</t>
-  </si>
-  <si>
-    <t>Tope</t>
-  </si>
-  <si>
-    <t>Sahlil</t>
-  </si>
-  <si>
-    <t>Esther</t>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Paritally Implemented</t>
+  </si>
+  <si>
+    <t>Not implemented</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Services booked can be seen in profile.</t>
+  </si>
+  <si>
+    <t>As a user I want to be able to see services I've made bookings for</t>
+  </si>
+  <si>
+    <t>Custom Requests allow for this</t>
+  </si>
+  <si>
+    <t>Can filter services by location.</t>
+  </si>
+  <si>
+    <t>Implemented on register and login pages, eye icon</t>
+  </si>
+  <si>
+    <t>Stuck to a color scheme of blue, green, black and white.</t>
+  </si>
+  <si>
+    <t>As a devloper I would keep more important information in the centre and the top screen for the users appeal.</t>
+  </si>
+  <si>
+    <t>none.</t>
+  </si>
+  <si>
+    <t>font size is an ideal size.</t>
+  </si>
+  <si>
+    <t>As a developer, it would be optional for the users to allow location access to build trust.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Didn't seem nessescary. </t>
+  </si>
+  <si>
+    <t>Jobs are paid in 'cash in hand', Once the employee is satisfied, they can mark the job as complete.</t>
+  </si>
+  <si>
+    <t>As a developer , I would need to make sure that the user can hire a service for an address different to the one they are at.</t>
+  </si>
+  <si>
+    <t>Implemented.</t>
+  </si>
+  <si>
+    <t>Users should not be able to do this, only for employee, which has been done</t>
+  </si>
+  <si>
+    <t>Implemented</t>
+  </si>
+  <si>
+    <t>Needs implementing</t>
+  </si>
+  <si>
+    <t>As a developer the site will have a FAQ page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As developer the site will have a terms of servicee page and company policy page. </t>
+  </si>
+  <si>
+    <t>As a user I will be able to login and register</t>
+  </si>
+  <si>
+    <t>Implemented, alerts are up to 5 seconds to ensure users can read them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a developer, the site will have an about us page which displays the service it provides and any inpmortant information the user will need to know about. </t>
+  </si>
+  <si>
+    <t>there is a filter for services already.</t>
+  </si>
+  <si>
+    <t>Users receive alerts if an input is missed or the criteria is not succesfully met for an input.</t>
+  </si>
+  <si>
+    <t>Implemented. Errors throw if they conflict with another booking, or they choose a date (and/or time) that is in the past.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -197,18 +217,31 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -272,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -286,6 +319,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -301,20 +343,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7022B47F-CDE6-46FD-811E-8F2B25F5A0CC}" name="Table1" displayName="Table1" ref="A2:E24" totalsRowShown="0">
-  <autoFilter ref="A2:E24" xr:uid="{7022B47F-CDE6-46FD-811E-8F2B25F5A0CC}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{EA104D91-7D98-4447-9B4A-510E386EE4EA}" name="ID"/>
-    <tableColumn id="3" xr3:uid="{FFF715CB-EE30-408F-8857-59D9255F6C70}" name="Task"/>
-    <tableColumn id="2" xr3:uid="{03B00E17-5DA1-48F6-B875-A1423B85DB2B}" name="Allocated roles"/>
-    <tableColumn id="4" xr3:uid="{96A55F8C-252B-4091-A866-BB54DE6EF625}" name="sprint "/>
-    <tableColumn id="12" xr3:uid="{8954E598-E691-4DA7-A9B4-C93D6145EBED}" name="Column5"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -637,727 +665,628 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A2:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.1" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="98.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="128.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="84" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="8"/>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="9"/>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>6</v>
       </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C20" s="12"/>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C21" s="12"/>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C24" s="12"/>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C26" s="12"/>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C27" s="12"/>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C29" s="13"/>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C30" s="11"/>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C31" s="12"/>
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C32" s="12"/>
+      <c r="D32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C33" s="12"/>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C34" s="12"/>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>23</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>27</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>28</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>29</v>
-      </c>
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>30</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C35" s="13"/>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
         <v>32</v>
       </c>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>31</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>33</v>
+      </c>
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>34</v>
+      </c>
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>35</v>
+      </c>
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>36</v>
+      </c>
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>37</v>
+      </c>
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
         <v>38</v>
       </c>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <v>32</v>
-      </c>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <v>33</v>
-      </c>
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <v>34</v>
-      </c>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>35</v>
-      </c>
-      <c r="C38" s="6"/>
-    </row>
-    <row r="39" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <v>36</v>
-      </c>
-      <c r="C39" s="6"/>
-    </row>
-    <row r="40" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <v>37</v>
-      </c>
-      <c r="C40" s="6"/>
-    </row>
-    <row r="41" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <v>38</v>
-      </c>
-      <c r="C41" s="6"/>
-    </row>
-    <row r="42" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
         <v>39</v>
       </c>
-      <c r="C42" s="6"/>
-    </row>
-    <row r="43" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
         <v>40</v>
       </c>
-      <c r="C43" s="6"/>
-    </row>
-    <row r="44" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
         <v>41</v>
       </c>
-      <c r="C44" s="6"/>
-    </row>
-    <row r="45" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
         <v>42</v>
       </c>
-      <c r="C45" s="6"/>
-    </row>
-    <row r="46" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
         <v>43</v>
       </c>
-      <c r="C46" s="6"/>
-    </row>
-    <row r="47" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
         <v>44</v>
-      </c>
-      <c r="C47" s="6"/>
-    </row>
-    <row r="48" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
-        <v>45</v>
       </c>
       <c r="C48" s="6"/>
     </row>
     <row r="49" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C49" s="6"/>
     </row>
     <row r="50" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" s="6"/>
     </row>
     <row r="51" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C51" s="6"/>
     </row>
     <row r="52" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C52" s="6"/>
     </row>
     <row r="53" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C53" s="6"/>
     </row>
     <row r="54" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C54" s="6"/>
     </row>
     <row r="55" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C55" s="6"/>
     </row>
     <row r="56" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C56" s="6"/>
     </row>
     <row r="57" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C57" s="6"/>
     </row>
     <row r="58" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C58" s="6"/>
     </row>
     <row r="59" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C59" s="6"/>
     </row>
     <row r="60" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="6"/>
     </row>
     <row r="61" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C61" s="6"/>
     </row>
     <row r="62" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C62" s="6"/>
     </row>
     <row r="63" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C63" s="6"/>
     </row>
     <row r="64" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C64" s="6"/>
     </row>
     <row r="65" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C65" s="6"/>
     </row>
     <row r="66" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C66" s="6"/>
     </row>
     <row r="67" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C67" s="6"/>
     </row>
     <row r="68" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C68" s="6"/>
     </row>
     <row r="69" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C69" s="6"/>
     </row>
     <row r="70" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
+        <v>66</v>
+      </c>
+      <c r="C70" s="6"/>
+    </row>
+    <row r="71" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
         <v>67</v>
       </c>
-      <c r="C70" s="6"/>
+      <c r="C71" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3BACB0-9B63-4AA3-BB7E-95F68110FA19}">
-  <dimension ref="A2:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="72" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" customWidth="1"/>
-    <col min="5" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="11" width="12.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71423AFD-6E66-472C-A39D-D1701CDE2EDE}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58F091A-1C9E-40B1-95C4-CABA1A90E7FB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>